--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">학생정보!$A$1:$F$101</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="424">
   <si>
     <t>국어국문</t>
   </si>
@@ -1305,6 +1309,54 @@
   </si>
   <si>
     <t>전남 나주시 대호동 1029-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>학과코드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1657,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1673,7 +1725,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>408</v>
       </c>
@@ -1692,8 +1744,11 @@
       <c r="F1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>403</v>
       </c>
@@ -1713,8 +1768,12 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>399</v>
       </c>
@@ -1729,13 +1788,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>395</v>
       </c>
@@ -1750,13 +1813,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>391</v>
       </c>
@@ -1771,13 +1838,17 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>387</v>
       </c>
@@ -1792,13 +1863,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>383</v>
       </c>
@@ -1813,13 +1888,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>379</v>
       </c>
@@ -1834,13 +1913,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>375</v>
       </c>
@@ -1855,13 +1938,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>371</v>
       </c>
@@ -1876,13 +1963,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>367</v>
       </c>
@@ -1902,8 +1993,12 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>363</v>
       </c>
@@ -1918,13 +2013,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>359</v>
       </c>
@@ -1939,13 +2038,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>355</v>
       </c>
@@ -1960,13 +2063,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>351</v>
       </c>
@@ -1981,13 +2088,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>347</v>
       </c>
@@ -2002,13 +2113,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>343</v>
       </c>
@@ -2023,13 +2138,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2044,13 +2163,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2065,13 +2188,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2086,13 +2213,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2107,13 +2238,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2133,8 +2268,12 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2149,13 +2288,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2175,8 +2318,12 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2191,13 +2338,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2212,13 +2363,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2233,13 +2388,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2254,13 +2413,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2275,13 +2438,17 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2301,8 +2468,12 @@
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2317,13 +2488,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2343,8 +2518,12 @@
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2359,13 +2538,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2380,13 +2563,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2401,13 +2588,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2422,13 +2613,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2443,13 +2638,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2464,13 +2663,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2490,8 +2693,12 @@
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2506,13 +2713,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2527,13 +2738,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2553,8 +2768,12 @@
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2574,8 +2793,12 @@
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2590,13 +2813,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2616,8 +2843,12 @@
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2632,13 +2863,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2658,8 +2893,12 @@
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2679,8 +2918,12 @@
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2695,13 +2938,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2716,13 +2963,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2737,13 +2988,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2758,13 +3013,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2779,13 +3038,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2805,8 +3068,12 @@
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2826,8 +3093,12 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2847,8 +3118,12 @@
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2868,8 +3143,12 @@
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2884,13 +3163,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2905,13 +3188,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2926,13 +3213,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2947,13 +3238,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2968,13 +3263,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2989,13 +3288,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -3010,13 +3313,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3031,13 +3338,17 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3052,13 +3363,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3073,13 +3388,17 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3099,8 +3418,12 @@
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3120,8 +3443,12 @@
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3136,13 +3463,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3157,13 +3488,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3178,13 +3513,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3204,8 +3543,12 @@
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3220,13 +3563,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3241,13 +3588,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3267,8 +3618,12 @@
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3283,13 +3638,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3304,13 +3663,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3325,13 +3688,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3351,8 +3718,12 @@
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3367,13 +3738,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3388,13 +3763,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3409,13 +3788,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3430,13 +3813,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3451,13 +3838,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3472,13 +3863,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3493,13 +3888,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3514,13 +3913,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3535,13 +3938,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3556,13 +3963,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3577,13 +3988,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3598,13 +4013,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3624,8 +4043,12 @@
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3640,13 +4063,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3661,13 +4088,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3682,13 +4113,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3708,8 +4143,12 @@
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3724,13 +4163,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3745,13 +4188,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3766,13 +4213,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3787,10 +4238,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +4260,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3847,7 +4302,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3194-5958</v>
+        <v>010-7701-1115</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>400</v>
@@ -3869,14 +4324,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-7618-5796</v>
+        <v>010-6562-4977</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>396</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3891,7 +4346,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4075-7359</v>
+        <v>010-7348-2953</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>392</v>
@@ -3913,14 +4368,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1566-3577</v>
+        <v>010-9752-7897</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>388</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -3935,14 +4390,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3453-5633</v>
+        <v>010-5160-2266</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>384</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3957,14 +4412,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6940-0204</v>
+        <v>010-3141-8779</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>380</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -3979,14 +4434,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4502-4468</v>
+        <v>010-4784-5875</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>376</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4001,14 +4456,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0108-0976</v>
+        <v>010-1503-3090</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4023,14 +4478,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6671-8888</v>
+        <v>010-2590-8427</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4045,7 +4500,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5795-3859</v>
+        <v>010-2791-0758</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>364</v>
@@ -4067,14 +4522,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9946-4354</v>
+        <v>010-9035-6810</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>360</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4089,14 +4544,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7866-4819</v>
+        <v>010-4195-8485</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4111,14 +4566,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7146-1977</v>
+        <v>010-7466-4997</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4133,14 +4588,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7660-1834</v>
+        <v>010-6373-9855</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4155,14 +4610,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7366-0086</v>
+        <v>010-3956-3574</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4177,14 +4632,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9824-4069</v>
+        <v>010-6579-5856</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>410</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4199,14 +4654,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4747-1747</v>
+        <v>010-2376-5006</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4221,14 +4676,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0872-0943</v>
+        <v>010-5422-4725</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4243,14 +4698,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2302-4884</v>
+        <v>010-2484-8755</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4265,7 +4720,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6815-2178</v>
+        <v>010-7236-7780</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
@@ -4287,7 +4742,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2561-3923</v>
+        <v>010-8236-1569</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4309,14 +4764,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4920-0338</v>
+        <v>010-2022-5553</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4331,14 +4786,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5964-8813</v>
+        <v>010-4052-9471</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4353,14 +4808,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3143-0421</v>
+        <v>010-7580-1248</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4375,14 +4830,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5860-7038</v>
+        <v>010-9820-7042</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4397,7 +4852,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1012-7546</v>
+        <v>010-3838-2364</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
@@ -4419,14 +4874,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3560-7398</v>
+        <v>010-3034-5994</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4441,7 +4896,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8165-9530</v>
+        <v>010-1653-6017</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
@@ -4463,14 +4918,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0597-4919</v>
+        <v>010-5661-9037</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4485,14 +4940,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3534-3252</v>
+        <v>010-7608-5757</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4507,14 +4962,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1695-1493</v>
+        <v>010-2463-9802</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4529,7 +4984,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0424-9758</v>
+        <v>010-5489-1905</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
@@ -4551,14 +5006,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8214-0036</v>
+        <v>010-5802-9538</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4573,7 +5028,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7435-8220</v>
+        <v>010-4478-9961</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
@@ -4595,14 +5050,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1816-3961</v>
+        <v>010-7063-6998</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4617,14 +5072,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6711-5439</v>
+        <v>010-4140-0184</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4639,7 +5094,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3788-5066</v>
+        <v>010-4061-2363</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
@@ -4661,14 +5116,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7683-7336</v>
+        <v>010-8032-2830</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4683,7 +5138,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0345-2099</v>
+        <v>010-3628-4961</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
@@ -4705,14 +5160,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5568-3808</v>
+        <v>010-7446-7704</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -4727,14 +5182,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3813-7050</v>
+        <v>010-3720-2750</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4749,7 +5204,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8736-7154</v>
+        <v>010-5169-0634</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
@@ -4771,14 +5226,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0937-7640</v>
+        <v>010-5582-2887</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4793,14 +5248,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0139-6493</v>
+        <v>010-1844-8652</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4815,14 +5270,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5932-7609</v>
+        <v>010-7062-4079</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4837,14 +5292,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6546-5677</v>
+        <v>010-8261-2167</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4859,14 +5314,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6023-6603</v>
+        <v>010-4587-8519</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -4881,14 +5336,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0785-0143</v>
+        <v>010-1384-7222</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4903,14 +5358,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5387-2262</v>
+        <v>010-4925-2407</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4925,7 +5380,7 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5968-1004</v>
+        <v>010-7515-9650</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
@@ -4947,14 +5402,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7469-1804</v>
+        <v>010-2008-0362</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -4969,14 +5424,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4925-5724</v>
+        <v>010-0446-4556</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -4991,14 +5446,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8739-9200</v>
+        <v>010-9300-5192</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5013,14 +5468,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1157-4898</v>
+        <v>010-6848-4954</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5035,14 +5490,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7035-3856</v>
+        <v>010-0530-0491</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5057,14 +5512,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2787-1036</v>
+        <v>010-4504-3186</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5079,14 +5534,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2042-3859</v>
+        <v>010-3507-8238</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5101,14 +5556,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1494-7497</v>
+        <v>010-6303-3525</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5123,14 +5578,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4028-9823</v>
+        <v>010-0972-1135</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5145,7 +5600,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2867-4774</v>
+        <v>010-7503-7450</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
@@ -5167,14 +5622,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2523-7054</v>
+        <v>010-3455-5397</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5189,14 +5644,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4873-8067</v>
+        <v>010-2157-8900</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5211,14 +5666,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3160-9593</v>
+        <v>010-6241-7582</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5233,14 +5688,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2915-0977</v>
+        <v>010-2307-2047</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5255,14 +5710,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3255-1238</v>
+        <v>010-9987-2022</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5277,14 +5732,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-4230-1898</v>
+        <v>010-9153-6678</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5299,14 +5754,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0290-8370</v>
+        <v>010-3438-5540</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5321,7 +5776,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4667-2465</v>
+        <v>010-1098-3772</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
@@ -5343,14 +5798,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3896-7697</v>
+        <v>010-0674-7333</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5365,14 +5820,14 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2833-6476</v>
+        <v>010-3418-0675</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5387,14 +5842,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6794-4299</v>
+        <v>010-1410-8174</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5409,14 +5864,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6496-2052</v>
+        <v>010-1057-5801</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5431,14 +5886,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6147-5727</v>
+        <v>010-6044-8778</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5453,7 +5908,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4845-9785</v>
+        <v>010-8160-9856</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
@@ -5475,14 +5930,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2061-8163</v>
+        <v>010-4228-2398</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5497,14 +5952,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8724-2533</v>
+        <v>010-2387-5012</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5519,7 +5974,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4594-0817</v>
+        <v>010-7127-8331</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
@@ -5541,7 +5996,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3642-6235</v>
+        <v>010-9186-4241</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -5563,14 +6018,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7490-8830</v>
+        <v>010-4811-7052</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5585,7 +6040,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2936-6398</v>
+        <v>010-9744-8881</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
@@ -5607,14 +6062,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3162-7916</v>
+        <v>010-9119-9333</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5629,14 +6084,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7870-4335</v>
+        <v>010-4007-0932</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5651,14 +6106,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9305-5721</v>
+        <v>010-4219-4019</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5673,7 +6128,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3044-6406</v>
+        <v>010-3139-0855</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
@@ -5695,14 +6150,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5978-4451</v>
+        <v>010-9155-7881</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5717,7 +6172,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5040-3375</v>
+        <v>010-4652-9348</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
@@ -5739,14 +6194,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0538-5676</v>
+        <v>010-4654-7695</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -5761,7 +6216,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7697-5966</v>
+        <v>010-7026-0759</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
@@ -5783,14 +6238,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0267-2486</v>
+        <v>010-3240-8468</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5805,7 +6260,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2660-9646</v>
+        <v>010-7225-5493</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
@@ -5827,14 +6282,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8745-6134</v>
+        <v>010-7685-3992</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5849,14 +6304,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1185-5222</v>
+        <v>010-6292-7452</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5871,14 +6326,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3518-6226</v>
+        <v>010-4593-1560</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5893,14 +6348,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0149-3227</v>
+        <v>010-0805-1489</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5915,14 +6370,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7814-1247</v>
+        <v>010-6558-6992</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -5937,14 +6392,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1328-7913</v>
+        <v>010-0612-1866</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5959,14 +6414,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4771-8379</v>
+        <v>010-9153-0079</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -5981,14 +6436,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4629-0763</v>
+        <v>010-3029-1018</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6003,7 +6458,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8211-9015</v>
+        <v>010-7938-7887</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
@@ -6025,7 +6480,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4224-2734</v>
+        <v>010-9931-2450</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -6047,10 +6502,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6058,360 +6513,2590 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>390</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F2" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:E66" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
         <v>99</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
         <v>87</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
         <v>83</v>
       </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>68</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F101" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="학과정보" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">학생정보!$A$1:$F$101</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="445">
   <si>
     <t>국어국문</t>
   </si>
@@ -1340,23 +1340,107 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>D001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>D003</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>학과코드</t>
+    <t>학과장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1711,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1829,7 @@
         <v>409</v>
       </c>
       <c r="G1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1763,13 +1847,13 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F2,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1788,13 +1872,13 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F3,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1813,13 +1897,13 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F4,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -1838,13 +1922,13 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F5,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1863,13 +1947,13 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F6,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1888,13 +1972,13 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F7,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1913,13 +1997,13 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F8,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -1944,7 +2028,7 @@
         <v>48</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F9,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1969,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F10,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1988,13 +2072,13 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F11,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2013,13 +2097,13 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F12,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2038,13 +2122,13 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F13,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2063,13 +2147,13 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F14,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2088,13 +2172,13 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F15,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2113,13 +2197,13 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F16,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2144,7 +2228,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F17,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2163,13 +2247,13 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F18,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2188,13 +2272,13 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F19,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2213,13 +2297,13 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F20,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2238,13 +2322,13 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F21,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2263,13 +2347,13 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F22,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2294,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F23,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2313,13 +2397,13 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F24,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2344,7 +2428,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F25,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2363,13 +2447,13 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F26,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2388,13 +2472,13 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F27,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2413,13 +2497,13 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F28,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2438,13 +2522,13 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F29,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2463,13 +2547,13 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F30,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2488,13 +2572,13 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F31,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2513,13 +2597,13 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F32,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2538,13 +2622,13 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F33,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2563,13 +2647,13 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F34,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2594,7 +2678,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F35,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2613,13 +2697,13 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F36,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2638,13 +2722,13 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F37,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2663,13 +2747,13 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F38,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2688,13 +2772,13 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F39,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2713,13 +2797,13 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F40,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2738,13 +2822,13 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F41,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2763,13 +2847,13 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F42,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2794,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F43,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2819,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F44,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2838,13 +2922,13 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F45,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2863,13 +2947,13 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F46,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2894,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F47,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2919,7 +3003,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F48,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2938,13 +3022,13 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F49,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2969,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F50,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2988,13 +3072,13 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F51,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3013,13 +3097,13 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F52,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3044,7 +3128,7 @@
         <v>10</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F53,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3063,13 +3147,13 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F54,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3088,13 +3172,13 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F55,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3119,7 +3203,7 @@
         <v>10</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F56,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3138,13 +3222,13 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F57,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3169,7 +3253,7 @@
         <v>48</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F58,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3194,7 +3278,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F59,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3213,13 +3297,13 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F60,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3238,13 +3322,13 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F61,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3263,13 +3347,13 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F62,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3288,13 +3372,13 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F63,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3313,13 +3397,13 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F64,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3344,7 +3428,7 @@
         <v>48</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F65,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3363,13 +3447,13 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F66,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3388,13 +3472,13 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F67,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3413,13 +3497,13 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F68,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3438,13 +3522,13 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F69,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3469,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F70,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3488,13 +3572,13 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F71,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3519,7 +3603,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F72,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3544,7 +3628,7 @@
         <v>48</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F73,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3563,13 +3647,13 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F74,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3588,13 +3672,13 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F75,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3613,13 +3697,13 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F76,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3638,13 +3722,13 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F77,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3669,7 +3753,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F78,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3688,13 +3772,13 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F79,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3713,13 +3797,13 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F80,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3738,13 +3822,13 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F81,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3763,13 +3847,13 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F82,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3788,13 +3872,13 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F83,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3819,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F84,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3838,13 +3922,13 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F85,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3863,13 +3947,13 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F86,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3894,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F87,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3913,13 +3997,13 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="str">
-        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F88,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3944,7 +4028,7 @@
         <v>48</v>
       </c>
       <c r="G89" t="str">
-        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F89,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3963,13 +4047,13 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
       <c r="G90" t="str">
-        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F90,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3988,13 +4072,13 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
       <c r="G91" t="str">
-        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F91,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4019,7 +4103,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F92,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4044,7 +4128,7 @@
         <v>10</v>
       </c>
       <c r="G93" t="str">
-        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F93,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4063,13 +4147,13 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
       <c r="G94" t="str">
-        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F94,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4088,13 +4172,13 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
       <c r="G95" t="str">
-        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F95,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4119,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="str">
-        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F96,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4144,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F97,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4163,13 +4247,13 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
       <c r="G98" t="str">
-        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F98,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4188,13 +4272,13 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
       <c r="G99" t="str">
-        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F99,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4213,13 +4297,13 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
       <c r="G100" t="str">
-        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F100,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4238,13 +4322,13 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F101,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4302,7 +4386,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-7701-1115</v>
+        <v>010-9481-8202</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>400</v>
@@ -4324,14 +4408,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-6562-4977</v>
+        <v>010-8752-6703</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>396</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4346,14 +4430,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7348-2953</v>
+        <v>010-0292-7288</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>392</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4368,14 +4452,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9752-7897</v>
+        <v>010-0365-8837</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>388</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4390,14 +4474,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5160-2266</v>
+        <v>010-4717-1386</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>384</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4412,14 +4496,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3141-8779</v>
+        <v>010-7812-9957</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>380</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4434,14 +4518,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4784-5875</v>
+        <v>010-4981-1567</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>376</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4456,14 +4540,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1503-3090</v>
+        <v>010-4103-2126</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4478,7 +4562,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2590-8427</v>
+        <v>010-5916-2009</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>368</v>
@@ -4500,14 +4584,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2791-0758</v>
+        <v>010-2924-4564</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>364</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4522,14 +4606,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9035-6810</v>
+        <v>010-5670-2897</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>360</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4544,14 +4628,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4195-8485</v>
+        <v>010-6963-3331</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4566,14 +4650,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7466-4997</v>
+        <v>010-3938-9480</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4588,7 +4672,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6373-9855</v>
+        <v>010-0859-7239</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>348</v>
@@ -4610,14 +4694,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3956-3574</v>
+        <v>010-2433-1345</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4632,14 +4716,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6579-5856</v>
+        <v>010-0667-6672</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>410</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4654,14 +4738,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2376-5006</v>
+        <v>010-8836-5436</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4676,14 +4760,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5422-4725</v>
+        <v>010-0696-0970</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4698,14 +4782,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2484-8755</v>
+        <v>010-8373-3252</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4720,14 +4804,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7236-7780</v>
+        <v>010-2903-7413</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4742,7 +4826,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8236-1569</v>
+        <v>010-5433-7387</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4764,14 +4848,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2022-5553</v>
+        <v>010-9610-6403</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4786,14 +4870,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4052-9471</v>
+        <v>010-4963-1534</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4808,14 +4892,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7580-1248</v>
+        <v>010-1690-0478</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4830,14 +4914,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9820-7042</v>
+        <v>010-2523-9021</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4852,14 +4936,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3838-2364</v>
+        <v>010-8784-0108</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4874,14 +4958,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3034-5994</v>
+        <v>010-1747-0259</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4896,7 +4980,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1653-6017</v>
+        <v>010-5115-1108</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
@@ -4918,14 +5002,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5661-9037</v>
+        <v>010-0767-8217</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4940,7 +5024,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7608-5757</v>
+        <v>010-7546-3478</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
@@ -4962,7 +5046,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2463-9802</v>
+        <v>010-8282-5012</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
@@ -4984,14 +5068,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5489-1905</v>
+        <v>010-8065-0257</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -5006,14 +5090,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5802-9538</v>
+        <v>010-2699-6130</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -5028,14 +5112,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4478-9961</v>
+        <v>010-5086-7511</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -5050,14 +5134,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7063-6998</v>
+        <v>010-2794-5016</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5072,14 +5156,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4140-0184</v>
+        <v>010-7552-6293</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5094,14 +5178,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4061-2363</v>
+        <v>010-2851-5704</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5116,7 +5200,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8032-2830</v>
+        <v>010-7873-4837</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
@@ -5138,14 +5222,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3628-4961</v>
+        <v>010-9387-9880</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5160,14 +5244,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7446-7704</v>
+        <v>010-7014-8002</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5182,14 +5266,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3720-2750</v>
+        <v>010-9393-5520</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -5204,7 +5288,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5169-0634</v>
+        <v>010-3522-0302</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
@@ -5226,7 +5310,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5582-2887</v>
+        <v>010-7021-6768</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
@@ -5248,14 +5332,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1844-8652</v>
+        <v>010-8998-2938</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5270,14 +5354,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7062-4079</v>
+        <v>010-8967-3132</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5292,14 +5376,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8261-2167</v>
+        <v>010-8335-9835</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5314,14 +5398,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4587-8519</v>
+        <v>010-0313-1808</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -5336,14 +5420,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1384-7222</v>
+        <v>010-9290-0873</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5358,14 +5442,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4925-2407</v>
+        <v>010-8240-8414</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5380,14 +5464,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7515-9650</v>
+        <v>010-9898-2146</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5402,14 +5486,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2008-0362</v>
+        <v>010-4291-8107</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5424,7 +5508,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0446-4556</v>
+        <v>010-3536-3554</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
@@ -5446,7 +5530,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9300-5192</v>
+        <v>010-3426-1263</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
@@ -5468,14 +5552,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6848-4954</v>
+        <v>010-8697-5581</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5490,7 +5574,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0530-0491</v>
+        <v>010-6799-4591</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
@@ -5512,14 +5596,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4504-3186</v>
+        <v>010-0545-8066</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5534,14 +5618,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3507-8238</v>
+        <v>010-2680-3762</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5556,14 +5640,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6303-3525</v>
+        <v>010-9531-8417</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5578,7 +5662,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0972-1135</v>
+        <v>010-9358-8746</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
@@ -5600,14 +5684,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7503-7450</v>
+        <v>010-2621-2053</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5622,14 +5706,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3455-5397</v>
+        <v>010-0189-0059</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5644,14 +5728,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2157-8900</v>
+        <v>010-0714-0994</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5666,14 +5750,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6241-7582</v>
+        <v>010-8045-1105</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5688,14 +5772,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2307-2047</v>
+        <v>010-6753-9368</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5710,14 +5794,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9987-2022</v>
+        <v>010-4321-9714</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5732,14 +5816,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-9153-6678</v>
+        <v>010-4886-7168</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5754,14 +5838,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3438-5540</v>
+        <v>010-4863-8472</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5776,14 +5860,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1098-3772</v>
+        <v>010-3999-3159</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5798,14 +5882,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0674-7333</v>
+        <v>010-9610-4172</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5820,7 +5904,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3418-0675</v>
+        <v>010-2346-6740</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5842,14 +5926,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1410-8174</v>
+        <v>010-3399-0985</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5864,7 +5948,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1057-5801</v>
+        <v>010-0207-6862</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
@@ -5886,14 +5970,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6044-8778</v>
+        <v>010-1673-7637</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5908,14 +5992,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8160-9856</v>
+        <v>010-4136-2237</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5930,14 +6014,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4228-2398</v>
+        <v>010-1309-2525</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5952,14 +6036,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2387-5012</v>
+        <v>010-8794-7656</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5974,14 +6058,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7127-8331</v>
+        <v>010-3253-6794</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5996,14 +6080,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9186-4241</v>
+        <v>010-1881-5255</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -6018,14 +6102,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4811-7052</v>
+        <v>010-8558-0218</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -6040,14 +6124,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9744-8881</v>
+        <v>010-0815-3776</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6062,14 +6146,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9119-9333</v>
+        <v>010-7946-4177</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -6084,7 +6168,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4007-0932</v>
+        <v>010-4142-6816</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
@@ -6106,14 +6190,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4219-4019</v>
+        <v>010-9038-3103</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6128,14 +6212,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3139-0855</v>
+        <v>010-5780-5748</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -6150,14 +6234,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9155-7881</v>
+        <v>010-7229-4537</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6172,14 +6256,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4652-9348</v>
+        <v>010-6952-0532</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -6194,14 +6278,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4654-7695</v>
+        <v>010-5579-6195</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6216,7 +6300,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7026-0759</v>
+        <v>010-3318-9763</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
@@ -6238,14 +6322,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3240-8468</v>
+        <v>010-2761-4702</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -6260,7 +6344,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7225-5493</v>
+        <v>010-9965-4646</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
@@ -6282,14 +6366,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7685-3992</v>
+        <v>010-8286-0689</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6304,14 +6388,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6292-7452</v>
+        <v>010-6595-0914</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6326,14 +6410,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4593-1560</v>
+        <v>010-6050-1181</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -6348,14 +6432,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0805-1489</v>
+        <v>010-6269-9720</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6370,14 +6454,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6558-6992</v>
+        <v>010-6487-0233</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6392,14 +6476,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0612-1866</v>
+        <v>010-2640-3087</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -6414,14 +6498,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9153-0079</v>
+        <v>010-8170-6531</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -6436,7 +6520,7 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3029-1018</v>
+        <v>010-2044-7095</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -6458,14 +6542,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7938-7887</v>
+        <v>010-8099-4882</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6480,14 +6564,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9931-2450</v>
+        <v>010-1120-0120</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6539,23 +6623,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F2" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6564,23 +6648,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:E66" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6589,23 +6673,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6614,23 +6698,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6639,23 +6723,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6664,23 +6748,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6689,23 +6773,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
         <v>99</v>
       </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6714,23 +6798,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6739,7 +6823,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
@@ -6747,15 +6831,15 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6764,23 +6848,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6789,23 +6873,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6814,23 +6898,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6839,15 +6923,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
@@ -6855,7 +6939,7 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6864,23 +6948,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6889,19 +6973,19 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
@@ -6914,23 +6998,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6939,23 +7023,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6964,23 +7048,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
         <v>92</v>
       </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6989,23 +7073,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7014,23 +7098,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7039,23 +7123,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7064,23 +7148,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7089,23 +7173,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
-      </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7114,23 +7198,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7139,23 +7223,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7164,23 +7248,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
         <v>77</v>
       </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7189,23 +7273,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7214,23 +7298,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7239,23 +7323,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7264,23 +7348,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7289,23 +7373,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7314,23 +7398,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7339,23 +7423,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7364,23 +7448,23 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7389,23 +7473,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7414,23 +7498,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7439,23 +7523,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7464,23 +7548,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7489,23 +7573,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7514,23 +7598,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7539,23 +7623,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
         <v>93</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7564,23 +7648,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7589,23 +7673,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7614,23 +7698,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7639,23 +7723,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7664,23 +7748,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7689,7 +7773,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
@@ -7697,15 +7781,15 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7714,23 +7798,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7739,23 +7823,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7764,15 +7848,15 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
@@ -7780,7 +7864,7 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7789,23 +7873,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7814,23 +7898,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="F53">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7839,19 +7923,19 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
@@ -7864,23 +7948,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="1"/>
         <v>98</v>
       </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
-      </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7889,23 +7973,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7914,23 +7998,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
         <v>50</v>
       </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7939,7 +8023,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
@@ -7947,15 +8031,15 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7964,23 +8048,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7989,23 +8073,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8014,11 +8098,11 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
@@ -8026,11 +8110,11 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8039,7 +8123,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
@@ -8047,15 +8131,15 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8064,23 +8148,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8089,23 +8173,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8114,23 +8198,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8139,15 +8223,15 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66" ca="1" si="3">RANDBETWEEN(50,100)</f>
@@ -8155,7 +8239,7 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8164,7 +8248,7 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F101" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="4"/>
@@ -8172,15 +8256,15 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8189,23 +8273,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8214,23 +8298,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8239,23 +8323,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8264,23 +8348,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8289,23 +8373,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8314,23 +8398,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="4"/>
         <v>50</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="4"/>
-        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8339,23 +8423,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="4"/>
         <v>95</v>
       </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="4"/>
-        <v>61</v>
-      </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8364,23 +8448,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8389,23 +8473,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8414,23 +8498,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8439,23 +8523,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="4"/>
         <v>82</v>
       </c>
-      <c r="C78">
-        <f t="shared" ca="1" si="4"/>
-        <v>58</v>
-      </c>
       <c r="D78">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8464,23 +8548,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8489,23 +8573,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8514,23 +8598,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8539,23 +8623,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8564,23 +8648,23 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8589,11 +8673,11 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="4"/>
@@ -8601,11 +8685,11 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8614,7 +8698,7 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="4"/>
@@ -8622,15 +8706,15 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8639,23 +8723,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
-      <c r="C86">
-        <f t="shared" ca="1" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="4"/>
-        <v>55</v>
-      </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8664,23 +8748,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8689,23 +8773,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8714,23 +8798,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="4"/>
         <v>79</v>
       </c>
-      <c r="C89">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
-      </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8739,23 +8823,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8764,23 +8848,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8789,23 +8873,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
-      <c r="C92">
-        <f t="shared" ca="1" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="4"/>
-        <v>74</v>
-      </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8814,23 +8898,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8839,23 +8923,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8864,23 +8948,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8889,23 +8973,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8914,23 +8998,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8939,23 +9023,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8964,23 +9048,23 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8989,23 +9073,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9014,23 +9098,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -9041,55 +9125,141 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-746-4655</v>
+      </c>
+      <c r="F2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-435-2205</v>
+      </c>
+      <c r="F3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(1000000,9999999),"-000-0000")</f>
+        <v>062-612-3778</v>
+      </c>
+      <c r="F4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-833-8441</v>
+      </c>
+      <c r="F5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>422</v>
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-735-3302</v>
+      </c>
+      <c r="F6" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -4386,14 +4386,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-9481-8202</v>
+        <v>010-6764-2310</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>400</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-8752-6703</v>
+        <v>010-3601-4204</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>396</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0292-7288</v>
+        <v>010-2934-6318</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>392</v>
@@ -4452,14 +4452,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0365-8837</v>
+        <v>010-6499-8450</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>388</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4474,14 +4474,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4717-1386</v>
+        <v>010-6543-3129</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>384</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7812-9957</v>
+        <v>010-7617-1064</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>380</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4981-1567</v>
+        <v>010-9018-2770</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>376</v>
@@ -4540,14 +4540,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4103-2126</v>
+        <v>010-8256-5661</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5916-2009</v>
+        <v>010-3340-7494</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2924-4564</v>
+        <v>010-6991-0806</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>364</v>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5670-2897</v>
+        <v>010-5642-8846</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>360</v>
@@ -4628,14 +4628,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6963-3331</v>
+        <v>010-6032-7919</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3938-9480</v>
+        <v>010-0978-0947</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>352</v>
@@ -4672,14 +4672,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0859-7239</v>
+        <v>010-3706-4141</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2433-1345</v>
+        <v>010-2932-4335</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>344</v>
@@ -4716,14 +4716,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0667-6672</v>
+        <v>010-9708-7085</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>410</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4738,14 +4738,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8836-5436</v>
+        <v>010-2273-4878</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4760,14 +4760,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0696-0970</v>
+        <v>010-7503-6691</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4782,14 +4782,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8373-3252</v>
+        <v>010-3375-1413</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4804,14 +4804,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2903-7413</v>
+        <v>010-2681-0495</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5433-7387</v>
+        <v>010-9539-2612</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9610-6403</v>
+        <v>010-8162-3013</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4963-1534</v>
+        <v>010-7644-6851</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1690-0478</v>
+        <v>010-5502-2919</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
@@ -4914,14 +4914,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2523-9021</v>
+        <v>010-3083-4938</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4936,14 +4936,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8784-0108</v>
+        <v>010-0271-1535</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4958,14 +4958,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1747-0259</v>
+        <v>010-2427-7372</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5115-1108</v>
+        <v>010-6689-9113</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0767-8217</v>
+        <v>010-0935-3905</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
@@ -5024,14 +5024,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7546-3478</v>
+        <v>010-2240-0626</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5046,14 +5046,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8282-5012</v>
+        <v>010-2354-9295</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -5068,14 +5068,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8065-0257</v>
+        <v>010-9858-2966</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -5090,14 +5090,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2699-6130</v>
+        <v>010-4904-6679</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -5112,14 +5112,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5086-7511</v>
+        <v>010-7670-7810</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -5134,14 +5134,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2794-5016</v>
+        <v>010-8243-9834</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5156,14 +5156,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7552-6293</v>
+        <v>010-8816-7190</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5178,14 +5178,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2851-5704</v>
+        <v>010-6435-1397</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7873-4837</v>
+        <v>010-7542-2396</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
@@ -5222,14 +5222,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9387-9880</v>
+        <v>010-3667-6678</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5244,14 +5244,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7014-8002</v>
+        <v>010-1733-3444</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9393-5520</v>
+        <v>010-1046-3056</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3522-0302</v>
+        <v>010-4546-5246</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5310,14 +5310,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7021-6768</v>
+        <v>010-4255-7466</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5332,14 +5332,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8998-2938</v>
+        <v>010-3478-7627</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5354,14 +5354,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8967-3132</v>
+        <v>010-3883-5353</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5376,14 +5376,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8335-9835</v>
+        <v>010-5494-1930</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0313-1808</v>
+        <v>010-3021-8188</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9290-0873</v>
+        <v>010-5141-5489</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
@@ -5442,14 +5442,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8240-8414</v>
+        <v>010-7145-2426</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5464,14 +5464,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9898-2146</v>
+        <v>010-3650-6242</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5486,14 +5486,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4291-8107</v>
+        <v>010-1112-3440</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5508,14 +5508,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3536-3554</v>
+        <v>010-8048-5631</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5530,14 +5530,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3426-1263</v>
+        <v>010-6698-2999</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8697-5581</v>
+        <v>010-3419-8154</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6799-4591</v>
+        <v>010-2403-8641</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
@@ -5596,14 +5596,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0545-8066</v>
+        <v>010-4394-0999</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5618,14 +5618,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2680-3762</v>
+        <v>010-6094-0293</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5640,14 +5640,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9531-8417</v>
+        <v>010-0708-0991</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5662,14 +5662,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9358-8746</v>
+        <v>010-5888-5687</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2621-2053</v>
+        <v>010-6913-5368</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0189-0059</v>
+        <v>010-6204-8338</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0714-0994</v>
+        <v>010-4106-8520</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8045-1105</v>
+        <v>010-0881-1539</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5772,14 +5772,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6753-9368</v>
+        <v>010-2237-1715</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5794,14 +5794,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4321-9714</v>
+        <v>010-4436-3340</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-4886-7168</v>
+        <v>010-7900-2238</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
@@ -5838,14 +5838,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4863-8472</v>
+        <v>010-5454-1085</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3999-3159</v>
+        <v>010-2072-9370</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9610-4172</v>
+        <v>010-1639-1635</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2346-6740</v>
+        <v>010-2848-8587</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3399-0985</v>
+        <v>010-1066-2715</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
@@ -5948,14 +5948,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0207-6862</v>
+        <v>010-2446-7944</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5970,14 +5970,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1673-7637</v>
+        <v>010-2559-0525</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5992,14 +5992,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4136-2237</v>
+        <v>010-7870-3650</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -6014,14 +6014,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1309-2525</v>
+        <v>010-1039-4533</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -6036,14 +6036,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8794-7656</v>
+        <v>010-2520-7596</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -6058,14 +6058,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3253-6794</v>
+        <v>010-3122-3611</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -6080,14 +6080,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1881-5255</v>
+        <v>010-2800-2136</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -6102,14 +6102,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8558-0218</v>
+        <v>010-1191-9883</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -6124,14 +6124,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0815-3776</v>
+        <v>010-5578-5356</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7946-4177</v>
+        <v>010-9681-3718</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
@@ -6168,14 +6168,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4142-6816</v>
+        <v>010-8604-0767</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -6190,14 +6190,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9038-3103</v>
+        <v>010-8635-3606</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6212,14 +6212,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5780-5748</v>
+        <v>010-6097-1414</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -6234,14 +6234,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7229-4537</v>
+        <v>010-3889-4572</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6952-0532</v>
+        <v>010-2188-1905</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
@@ -6278,14 +6278,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5579-6195</v>
+        <v>010-9813-9440</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6300,14 +6300,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3318-9763</v>
+        <v>010-2583-0559</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -6322,14 +6322,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2761-4702</v>
+        <v>010-0829-1977</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -6344,14 +6344,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9965-4646</v>
+        <v>010-7619-9169</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -6366,14 +6366,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8286-0689</v>
+        <v>010-7094-3779</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6388,14 +6388,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6595-0914</v>
+        <v>010-8077-0350</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6410,14 +6410,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6050-1181</v>
+        <v>010-5791-2565</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -6432,14 +6432,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6269-9720</v>
+        <v>010-3271-5422</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6454,14 +6454,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6487-0233</v>
+        <v>010-6007-6465</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6476,14 +6476,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2640-3087</v>
+        <v>010-3945-5166</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -6498,14 +6498,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8170-6531</v>
+        <v>010-2606-8913</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -6520,14 +6520,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2044-7095</v>
+        <v>010-3311-3890</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6542,14 +6542,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8099-4882</v>
+        <v>010-8259-0035</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6564,14 +6564,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1120-0120</v>
+        <v>010-6794-9503</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6623,23 +6623,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F2" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6648,23 +6648,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:E66" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="1"/>
         <v>85</v>
       </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
-      </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6673,23 +6673,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
@@ -6706,15 +6706,15 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6723,23 +6723,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6748,23 +6748,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
         <v>79</v>
       </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6773,23 +6773,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6798,23 +6798,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6823,23 +6823,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6848,23 +6848,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6873,23 +6873,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6898,23 +6898,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6923,23 +6923,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6948,23 +6948,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6973,23 +6973,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
@@ -7006,15 +7006,15 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7023,23 +7023,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7048,23 +7048,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7073,19 +7073,19 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
@@ -7098,23 +7098,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7123,23 +7123,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7148,23 +7148,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7173,23 +7173,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
         <v>93</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7198,23 +7198,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7223,23 +7223,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7248,23 +7248,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7273,23 +7273,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7298,23 +7298,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7323,23 +7323,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7348,23 +7348,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7373,23 +7373,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7398,23 +7398,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,23 +7423,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7448,23 +7448,23 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
-      </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7473,23 +7473,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7502,19 +7502,19 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7523,23 +7523,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="2"/>
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7548,23 +7548,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
         <v>56</v>
       </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7598,23 +7598,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7623,23 +7623,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7648,23 +7648,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7673,23 +7673,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7698,23 +7698,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7723,23 +7723,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
@@ -7756,15 +7756,15 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7773,23 +7773,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7798,23 +7798,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="2"/>
         <v>73</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7823,23 +7823,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7848,23 +7848,23 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7873,23 +7873,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7898,23 +7898,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7923,23 +7923,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7948,23 +7948,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7973,23 +7973,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7998,23 +7998,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8023,23 +8023,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8048,23 +8048,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8073,23 +8073,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8098,23 +8098,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8123,23 +8123,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8148,23 +8148,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8173,11 +8173,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
@@ -8185,11 +8185,11 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8198,23 +8198,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8223,23 +8223,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8248,23 +8248,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F101" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8273,23 +8273,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8298,23 +8298,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8323,23 +8323,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="4"/>
         <v>91</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="F70">
-        <f t="shared" ca="1" si="4"/>
-        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8352,19 +8352,19 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8373,23 +8373,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8398,23 +8398,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8423,23 +8423,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8448,23 +8448,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8473,23 +8473,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8498,23 +8498,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="4"/>
         <v>87</v>
-      </c>
-      <c r="F77">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8523,23 +8523,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8548,23 +8548,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8573,23 +8573,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="4"/>
         <v>75</v>
       </c>
-      <c r="C80">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="4"/>
-        <v>59</v>
-      </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8598,23 +8598,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8623,23 +8623,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8648,23 +8648,23 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8673,23 +8673,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8698,23 +8698,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8723,23 +8723,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8748,23 +8748,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="4"/>
         <v>90</v>
       </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
-      </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8773,23 +8773,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="4"/>
         <v>51</v>
       </c>
-      <c r="D88">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
-      </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8798,23 +8798,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8823,23 +8823,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8848,23 +8848,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
-      <c r="C91">
-        <f t="shared" ca="1" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E91">
-        <f t="shared" ca="1" si="4"/>
-        <v>82</v>
-      </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8873,23 +8873,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
-      </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="4"/>
-        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8898,23 +8898,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8923,23 +8923,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8948,23 +8948,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8973,23 +8973,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8998,23 +8998,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -9027,19 +9027,19 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -9048,23 +9048,23 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -9073,23 +9073,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="4"/>
         <v>99</v>
       </c>
-      <c r="C100">
-        <f t="shared" ca="1" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="E100">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
-      </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9098,23 +9098,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-746-4655</v>
+        <v>062-455-2532</v>
       </c>
       <c r="F2" t="s">
         <v>440</v>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="E3" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-435-2205</v>
+        <v>062-713-7997</v>
       </c>
       <c r="F3" t="s">
         <v>441</v>
@@ -9213,8 +9213,8 @@
         <v>437</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(1000000,9999999),"-000-0000")</f>
-        <v>062-612-3778</v>
+        <f t="shared" ref="E4:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(1000000,9999999),"-000-0000")</f>
+        <v>062-688-3098</v>
       </c>
       <c r="F4" t="s">
         <v>442</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-833-8441</v>
+        <v>062-127-2045</v>
       </c>
       <c r="F5" t="s">
         <v>443</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-735-3302</v>
+        <v>062-282-7169</v>
       </c>
       <c r="F6" t="s">
         <v>444</v>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -4386,14 +4386,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-6764-2310</v>
+        <v>010-7053-3866</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>400</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4408,14 +4408,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3601-4204</v>
+        <v>010-6955-2102</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>396</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2934-6318</v>
+        <v>010-8806-5137</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>392</v>
@@ -4452,14 +4452,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6499-8450</v>
+        <v>010-9190-9629</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>388</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4474,14 +4474,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6543-3129</v>
+        <v>010-8736-6093</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>384</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4496,14 +4496,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7617-1064</v>
+        <v>010-9548-3555</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>380</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4518,14 +4518,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9018-2770</v>
+        <v>010-5465-4564</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>376</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4540,14 +4540,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8256-5661</v>
+        <v>010-8093-5612</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3340-7494</v>
+        <v>010-7044-5646</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>368</v>
@@ -4584,14 +4584,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6991-0806</v>
+        <v>010-2781-0634</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>364</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4606,14 +4606,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5642-8846</v>
+        <v>010-5584-0614</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>360</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4628,14 +4628,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6032-7919</v>
+        <v>010-8262-7651</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4650,14 +4650,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0978-0947</v>
+        <v>010-1071-9141</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3706-4141</v>
+        <v>010-5779-1463</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>348</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2932-4335</v>
+        <v>010-5354-3315</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>344</v>
@@ -4716,14 +4716,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9708-7085</v>
+        <v>010-2587-0380</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>410</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4738,14 +4738,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2273-4878</v>
+        <v>010-2275-7296</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4760,14 +4760,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7503-6691</v>
+        <v>010-8590-0969</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4782,14 +4782,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3375-1413</v>
+        <v>010-8875-5755</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4804,14 +4804,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2681-0495</v>
+        <v>010-2362-1641</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9539-2612</v>
+        <v>010-9653-1167</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8162-3013</v>
+        <v>010-0989-5278</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4870,14 +4870,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7644-6851</v>
+        <v>010-8853-6100</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4892,14 +4892,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5502-2919</v>
+        <v>010-1362-6375</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4914,14 +4914,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3083-4938</v>
+        <v>010-9703-5610</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0271-1535</v>
+        <v>010-9326-3547</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
@@ -4958,14 +4958,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2427-7372</v>
+        <v>010-5477-9149</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4980,14 +4980,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6689-9113</v>
+        <v>010-8980-3728</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0935-3905</v>
+        <v>010-5774-2353</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
@@ -5024,14 +5024,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2240-0626</v>
+        <v>010-5147-7560</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5046,14 +5046,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2354-9295</v>
+        <v>010-6085-1597</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -5068,14 +5068,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9858-2966</v>
+        <v>010-6713-4681</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4904-6679</v>
+        <v>010-9050-7637</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
@@ -5112,14 +5112,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7670-7810</v>
+        <v>010-3413-1807</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -5134,14 +5134,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8243-9834</v>
+        <v>010-8909-2596</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5156,14 +5156,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8816-7190</v>
+        <v>010-1953-2299</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5178,14 +5178,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6435-1397</v>
+        <v>010-3254-6159</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7542-2396</v>
+        <v>010-4308-5798</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3667-6678</v>
+        <v>010-1611-7005</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
@@ -5244,14 +5244,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1733-3444</v>
+        <v>010-9905-6798</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5266,14 +5266,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1046-3056</v>
+        <v>010-4635-0495</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4546-5246</v>
+        <v>010-9631-6299</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5310,14 +5310,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4255-7466</v>
+        <v>010-3209-8916</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5332,14 +5332,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3478-7627</v>
+        <v>010-5682-3177</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3883-5353</v>
+        <v>010-4805-5420</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5494-1930</v>
+        <v>010-6627-3563</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
@@ -5398,14 +5398,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3021-8188</v>
+        <v>010-0582-1177</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -5420,14 +5420,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5141-5489</v>
+        <v>010-8356-8134</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7145-2426</v>
+        <v>010-9590-1474</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
@@ -5464,14 +5464,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3650-6242</v>
+        <v>010-6841-3301</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1112-3440</v>
+        <v>010-7291-5645</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
@@ -5508,14 +5508,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8048-5631</v>
+        <v>010-5248-1544</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6698-2999</v>
+        <v>010-9673-3043</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3419-8154</v>
+        <v>010-4103-8315</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
@@ -5574,14 +5574,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2403-8641</v>
+        <v>010-9344-7429</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5596,14 +5596,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4394-0999</v>
+        <v>010-2049-0501</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6094-0293</v>
+        <v>010-1136-5056</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0708-0991</v>
+        <v>010-5352-8896</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5888-5687</v>
+        <v>010-0436-9529</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
@@ -5684,14 +5684,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6913-5368</v>
+        <v>010-3791-8342</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5706,14 +5706,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6204-8338</v>
+        <v>010-7410-2556</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5728,14 +5728,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4106-8520</v>
+        <v>010-6842-1998</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0881-1539</v>
+        <v>010-0885-8355</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5772,14 +5772,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2237-1715</v>
+        <v>010-3753-5249</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5794,14 +5794,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4436-3340</v>
+        <v>010-7072-3393</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-7900-2238</v>
+        <v>010-5754-2468</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
@@ -5838,14 +5838,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5454-1085</v>
+        <v>010-0892-3779</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5860,14 +5860,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2072-9370</v>
+        <v>010-2860-1271</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1639-1635</v>
+        <v>010-2938-0085</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2848-8587</v>
+        <v>010-7070-2277</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5926,14 +5926,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1066-2715</v>
+        <v>010-1400-5790</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5948,14 +5948,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2446-7944</v>
+        <v>010-8157-7137</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5970,14 +5970,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2559-0525</v>
+        <v>010-3860-7861</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7870-3650</v>
+        <v>010-2457-2915</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
@@ -6014,14 +6014,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1039-4533</v>
+        <v>010-3541-3993</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -6036,14 +6036,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2520-7596</v>
+        <v>010-6190-4295</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -6058,14 +6058,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3122-3611</v>
+        <v>010-3394-7771</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -6080,14 +6080,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2800-2136</v>
+        <v>010-2454-0194</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -6102,14 +6102,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1191-9883</v>
+        <v>010-8341-3744</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -6124,14 +6124,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5578-5356</v>
+        <v>010-1305-7396</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9681-3718</v>
+        <v>010-1293-9674</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8604-0767</v>
+        <v>010-5533-5494</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
@@ -6190,14 +6190,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8635-3606</v>
+        <v>010-8610-7676</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6097-1414</v>
+        <v>010-2488-8537</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3889-4572</v>
+        <v>010-1540-9360</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2188-1905</v>
+        <v>010-5151-6487</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
@@ -6278,14 +6278,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9813-9440</v>
+        <v>010-3721-5484</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2583-0559</v>
+        <v>010-1843-1942</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
@@ -6322,14 +6322,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0829-1977</v>
+        <v>010-2918-2954</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -6344,14 +6344,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7619-9169</v>
+        <v>010-8114-8861</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -6366,14 +6366,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7094-3779</v>
+        <v>010-4382-0427</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6388,14 +6388,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8077-0350</v>
+        <v>010-3946-7719</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6410,14 +6410,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5791-2565</v>
+        <v>010-6057-4054</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3271-5422</v>
+        <v>010-1256-0661</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
@@ -6454,14 +6454,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6007-6465</v>
+        <v>010-3357-7529</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6476,14 +6476,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3945-5166</v>
+        <v>010-4950-7864</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2606-8913</v>
+        <v>010-9360-4604</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -6520,14 +6520,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3311-3890</v>
+        <v>010-3719-7680</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6542,14 +6542,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8259-0035</v>
+        <v>010-0373-7952</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6564,14 +6564,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6794-9503</v>
+        <v>010-5660-3494</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6623,23 +6623,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F2" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6648,23 +6648,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:E66" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6673,23 +6673,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6698,23 +6698,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6723,23 +6723,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6748,23 +6748,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6773,23 +6773,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6798,23 +6798,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6823,23 +6823,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6848,23 +6848,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6873,23 +6873,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6898,23 +6898,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6923,23 +6923,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6948,23 +6948,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6973,23 +6973,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
         <v>86</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6998,23 +6998,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7023,23 +7023,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7048,23 +7048,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7073,15 +7073,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7098,23 +7098,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7123,23 +7123,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7148,23 +7148,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7173,23 +7173,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7198,23 +7198,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7223,23 +7223,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7248,23 +7248,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7273,23 +7273,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
         <v>90</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
-      </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7298,23 +7298,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7323,23 +7323,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7348,23 +7348,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
         <v>93</v>
       </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7373,23 +7373,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7398,23 +7398,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,23 +7423,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7448,23 +7448,23 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7473,23 +7473,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7498,23 +7498,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7523,23 +7523,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7548,23 +7548,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7598,23 +7598,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7623,23 +7623,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7648,23 +7648,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
         <v>97</v>
       </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
         <v>99</v>
       </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
-      </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7673,23 +7673,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7698,23 +7698,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7723,23 +7723,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7748,23 +7748,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7773,23 +7773,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7798,23 +7798,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7823,23 +7823,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7848,23 +7848,23 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7873,23 +7873,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7898,23 +7898,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7923,23 +7923,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7948,23 +7948,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7973,23 +7973,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7998,23 +7998,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8023,23 +8023,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="2"/>
-        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8048,23 +8048,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8073,23 +8073,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8098,23 +8098,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8123,15 +8123,15 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8148,23 +8148,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="1"/>
         <v>86</v>
       </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
-      </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8173,23 +8173,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="1"/>
         <v>78</v>
       </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8198,23 +8198,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8223,23 +8223,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8248,23 +8248,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F101" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ca="1" si="4"/>
-        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8273,23 +8273,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8298,23 +8298,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8323,23 +8323,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8348,23 +8348,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8373,23 +8373,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8398,23 +8398,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8423,23 +8423,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8448,23 +8448,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="4"/>
         <v>83</v>
-      </c>
-      <c r="C75">
-        <f t="shared" ca="1" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="F75">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8473,23 +8473,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8498,23 +8498,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8523,23 +8523,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8548,23 +8548,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8573,23 +8573,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8598,23 +8598,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8623,23 +8623,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8648,23 +8648,23 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8673,23 +8673,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8698,23 +8698,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8723,23 +8723,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8748,23 +8748,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8773,23 +8773,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8798,23 +8798,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8823,23 +8823,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8848,23 +8848,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="4"/>
@@ -8881,15 +8881,15 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8898,23 +8898,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8923,23 +8923,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8948,23 +8948,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8973,19 +8973,19 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
@@ -8998,23 +8998,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -9023,23 +9023,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -9048,23 +9048,23 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -9073,11 +9073,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
@@ -9085,11 +9085,11 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9098,23 +9098,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-455-2532</v>
+        <v>062-458-1207</v>
       </c>
       <c r="F2" t="s">
         <v>440</v>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="E3" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-713-7997</v>
+        <v>062-786-9201</v>
       </c>
       <c r="F3" t="s">
         <v>441</v>
@@ -9214,7 +9214,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(1000000,9999999),"-000-0000")</f>
-        <v>062-688-3098</v>
+        <v>062-770-2392</v>
       </c>
       <c r="F4" t="s">
         <v>442</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-127-2045</v>
+        <v>062-833-5358</v>
       </c>
       <c r="F5" t="s">
         <v>443</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-282-7169</v>
+        <v>062-600-5602</v>
       </c>
       <c r="F6" t="s">
         <v>444</v>
